--- a/biology/Botanique/Ferula/Ferula.xlsx
+++ b/biology/Botanique/Ferula/Ferula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Férule
 Ferula, en français Férule, est un genre de plantes à fleurs de la famille des Apiaceae. Ce genre eurasiatique est le troisième de la famille en taille, avec près de 200 espèces. Il est réparti des îles Canaries à l'Ouest jusqu'à la Chine occidentale et l'Inde du nord, en passant par le bassin méditerranéen, le Moyen-Orient et l'Asie centrale. Ce sont des plantes herbacées caractérisées par leurs fleurs jaunes disposées en ombelles. Les gommes-résines de plusieurs espèces de Férules sont connues depuis l'Antiquité et utilisées principalement pour leurs propriétés médicinales. Au XXIe siècle, les composés phytochimiques identifiés dans ces plantes, et particulièrement dans leurs huiles essentielles, font l'objet de nombreuses recherches.
@@ -512,11 +524,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec de nombreuses espèces, une large distribution et une morphologie mal comprise, le genre incarne tous les cauchemars d'un taxonomiste. Sa dernière révision complète a été effectuée en 1947 par le botaniste soviétique Evgueni Korovine[2] et comprend de nombreuses incohérences avec les découvertes faites ultérieurement et avec les analyses moléculaires[3].
-Le genre est officiellement décrit par le naturaliste suédois Carl von Linné en 1753, à partir des travaux du botaniste français Joseph Pitton de Tournefort[4]. Linné y place alors les espèces Ferula assa-foetida, Ferula canadensis, Ferula communis, Ferula ferulago, Ferula glauca, Ferula meoides, Ferula nodiflora, Ferula orientalis et Ferula tingitana.
-Selon Plants of the World online (POWO)                (3 avril 2021)[4], les genres suivants sont inclus dans le genre Ferula et sont donc synonymes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec de nombreuses espèces, une large distribution et une morphologie mal comprise, le genre incarne tous les cauchemars d'un taxonomiste. Sa dernière révision complète a été effectuée en 1947 par le botaniste soviétique Evgueni Korovine et comprend de nombreuses incohérences avec les découvertes faites ultérieurement et avec les analyses moléculaires.
+Le genre est officiellement décrit par le naturaliste suédois Carl von Linné en 1753, à partir des travaux du botaniste français Joseph Pitton de Tournefort. Linné y place alors les espèces Ferula assa-foetida, Ferula canadensis, Ferula communis, Ferula ferulago, Ferula glauca, Ferula meoides, Ferula nodiflora, Ferula orientalis et Ferula tingitana.
+Selon Plants of the World online (POWO)                (3 avril 2021), les genres suivants sont inclus dans le genre Ferula et sont donc synonymes :
 Agasulis Raf.
 Buniotrinia Stapf &amp; Wettst.
 Dardanis Raf.
@@ -563,10 +577,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont des herbacées vivaces, monocarpiques ou polycarpiques, ayant souvent une odeur d'oignon. Leur racine est pivotante, souvent ligneuse. La tige porte des ramifications alternes, opposées ou verticillées, la base souvent recouverte de gaines résiduelles fibreuses. Les feuilles sont pétiolées, à base engainante, généralement large ; le limbe foliaire est divisé en deux ou quatre pennes. Les feuilles caulinaires sont réduites vers le haut[5].
-Appareil reproducteur
-Les inflorescences sont souvent polygames, en ombelles, les terminales composées, les latérales à la fois composées et simples. Les fleurs sont bisexuées ou staminées ; les bractées sont généralement absentes, les bractéoles présentes ou absentes. Les dents du calice sont obsolètes ou minuscules, triangulaires (sauf pour Ferula kingdon-wardii). Les pétales sont jaunes ou jaune pâle, rarement jaune verdâtre, ovales ou lancéolés-oblongs, l'apex acuminé, infléchi. Le stylopode est conique, la base parfois dilatée, lobée. Le fruit est ellipsoïde ou ovale-globuleux, fortement comprimé dorsalement, glabre (rarement légèrement pubescent) ; ses côtes dorsales sont filiformes, généralement proéminentes, les côtes latérales sont ailées, à ailes étroites ou larges ; il y a une à quatre vittae dans chaque sillon, deux à douze sur la commissure. La face de la graine est plane ou légèrement concave. Le carpophore a deux branches à la base[5].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des herbacées vivaces, monocarpiques ou polycarpiques, ayant souvent une odeur d'oignon. Leur racine est pivotante, souvent ligneuse. La tige porte des ramifications alternes, opposées ou verticillées, la base souvent recouverte de gaines résiduelles fibreuses. Les feuilles sont pétiolées, à base engainante, généralement large ; le limbe foliaire est divisé en deux ou quatre pennes. Les feuilles caulinaires sont réduites vers le haut.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ferula</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ferula</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont souvent polygames, en ombelles, les terminales composées, les latérales à la fois composées et simples. Les fleurs sont bisexuées ou staminées ; les bractées sont généralement absentes, les bractéoles présentes ou absentes. Les dents du calice sont obsolètes ou minuscules, triangulaires (sauf pour Ferula kingdon-wardii). Les pétales sont jaunes ou jaune pâle, rarement jaune verdâtre, ovales ou lancéolés-oblongs, l'apex acuminé, infléchi. Le stylopode est conique, la base parfois dilatée, lobée. Le fruit est ellipsoïde ou ovale-globuleux, fortement comprimé dorsalement, glabre (rarement légèrement pubescent) ; ses côtes dorsales sont filiformes, généralement proéminentes, les côtes latérales sont ailées, à ailes étroites ou larges ; il y a une à quatre vittae dans chaque sillon, deux à douze sur la commissure. La face de la graine est plane ou légèrement concave. Le carpophore a deux branches à la base.
 			Ferula lancerottensis
 			Ferula ovina
 			Ferula penninervis
@@ -577,33 +631,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ferula</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ferula</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (3 avril 2021)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (3 avril 2021) :
 Ferula afghanica Gilli
 Ferula akitschkensis B.Fedtsch. ex Koso-Pol.
 Ferula alaica Pimenov &amp; Melibaev
@@ -828,33 +884,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ferula</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ferula</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur les 213 espèces connues[4], seules sept espèces ont été évaluées par l’Union internationale pour la conservation de la nature et inscrites sur la liste rouge de l'UICN[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur les 213 espèces connues, seules sept espèces ont été évaluées par l’Union internationale pour la conservation de la nature et inscrites sur la liste rouge de l'UICN :
 Préoccupation mineure :
 Ferula communis
 Ferula narthex
@@ -870,34 +928,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ferula</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ferula</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Usages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gommes-résines
-De nombreuses espèces de Ferula sont connues depuis l'Antiquité comme sources de gommes-résines aromatiques et utilisées en médecine traditionnelle. Les plus célèbres sont l'ase fétide, le galbanum, le sagapénum, la gomme ammoniaque et le sumbul. Chacun de ces produits peut être obtenu de plusieurs espèces, et la taxonomie exacte de leurs sources botaniques reste débattue et en évolution constante[7].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gommes-résines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses espèces de Ferula sont connues depuis l'Antiquité comme sources de gommes-résines aromatiques et utilisées en médecine traditionnelle. Les plus célèbres sont l'ase fétide, le galbanum, le sagapénum, la gomme ammoniaque et le sumbul. Chacun de ces produits peut être obtenu de plusieurs espèces, et la taxonomie exacte de leurs sources botaniques reste débattue et en évolution constante.
 </t>
         </is>
       </c>
